--- a/属性表.xlsx
+++ b/属性表.xlsx
@@ -222,6 +222,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -252,31 +272,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -293,23 +293,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -655,27 +659,27 @@
   </sheetPr>
   <dimension ref="A1:AK76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="5" min="1" max="3"/>
-    <col width="9" customWidth="1" style="5" min="4" max="4"/>
-    <col width="7.77734375" customWidth="1" style="5" min="5" max="5"/>
-    <col width="11.44140625" customWidth="1" style="5" min="6" max="17"/>
-    <col width="8.88671875" customWidth="1" style="5" min="18" max="60"/>
-    <col width="8.88671875" customWidth="1" style="5" min="61" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="15" min="1" max="3"/>
+    <col width="9" customWidth="1" style="15" min="4" max="4"/>
+    <col width="7.77734375" customWidth="1" style="15" min="5" max="5"/>
+    <col width="11.44140625" customWidth="1" style="15" min="6" max="17"/>
+    <col width="8.88671875" customWidth="1" style="15" min="18" max="59"/>
+    <col width="8.88671875" customWidth="1" style="15" min="60" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.8" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="19.8" customFormat="1" customHeight="1" s="10">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>职业</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>主属性</t>
         </is>
@@ -685,7 +689,7 @@
           <t>模型</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>模型倾向与转职属性</t>
         </is>
@@ -702,8 +706,8 @@
       <c r="N1" s="7" t="n"/>
       <c r="O1" s="7" t="n"/>
       <c r="P1" s="7" t="n"/>
-      <c r="Q1" s="11" t="n"/>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="9" t="inlineStr">
         <is>
           <t>一般(10%)</t>
         </is>
@@ -712,7 +716,7 @@
       <c r="T1" s="7" t="n"/>
       <c r="U1" s="7" t="n"/>
       <c r="V1" s="7" t="n"/>
-      <c r="W1" s="8" t="inlineStr">
+      <c r="W1" s="10" t="inlineStr">
         <is>
           <t>极品(1%)</t>
         </is>
@@ -720,8 +724,8 @@
       <c r="X1" s="7" t="n"/>
       <c r="Y1" s="7" t="n"/>
       <c r="Z1" s="7" t="n"/>
-      <c r="AA1" s="9" t="n"/>
-      <c r="AB1" s="8" t="inlineStr">
+      <c r="AA1" s="11" t="n"/>
+      <c r="AB1" s="10" t="inlineStr">
         <is>
           <t>大极品(0.015%)</t>
         </is>
@@ -729,8 +733,8 @@
       <c r="AC1" s="7" t="n"/>
       <c r="AD1" s="7" t="n"/>
       <c r="AE1" s="7" t="n"/>
-      <c r="AF1" s="9" t="n"/>
-      <c r="AG1" s="8" t="inlineStr">
+      <c r="AF1" s="11" t="n"/>
+      <c r="AG1" s="10" t="inlineStr">
         <is>
           <t>镇堡(0.0001%)</t>
         </is>
@@ -738,9 +742,9 @@
       <c r="AH1" s="7" t="n"/>
       <c r="AI1" s="7" t="n"/>
       <c r="AJ1" s="7" t="n"/>
-      <c r="AK1" s="9" t="n"/>
+      <c r="AK1" s="11" t="n"/>
     </row>
-    <row r="2" ht="19.8" customFormat="1" customHeight="1" s="8">
+    <row r="2" ht="19.8" customFormat="1" customHeight="1" s="10">
       <c r="A2" s="12" t="n"/>
       <c r="B2" s="12" t="n"/>
       <c r="C2" s="14" t="n"/>
@@ -905,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="1" s="15">
       <c r="A3" t="inlineStr">
         <is>
           <t>传奇法师</t>
@@ -994,37 +998,37 @@
         <v>985</v>
       </c>
       <c r="AB3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC3" t="n">
         <v>462</v>
       </c>
       <c r="AD3" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AE3" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AF3" t="n">
-        <v>40086</v>
+        <v>47287</v>
       </c>
       <c r="AG3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI3" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="AK3" t="n">
-        <v>10838011</v>
+        <v>4835083</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="1" s="15">
       <c r="A4" t="inlineStr">
         <is>
           <t>传奇法师</t>
@@ -1119,31 +1123,31 @@
         <v>504</v>
       </c>
       <c r="AD4" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AE4" t="n">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="AF4" t="n">
-        <v>41603</v>
+        <v>48040</v>
       </c>
       <c r="AG4" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH4" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AI4" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AK4" t="n">
-        <v>10559274</v>
+        <v>4874688</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="1" s="15">
       <c r="A5" t="inlineStr">
         <is>
           <t>传奇法师</t>
@@ -1238,31 +1242,31 @@
         <v>494</v>
       </c>
       <c r="AD5" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AE5" t="n">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="AF5" t="n">
-        <v>38704</v>
+        <v>52734</v>
       </c>
       <c r="AG5" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH5" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI5" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="AK5" t="n">
-        <v>10095992</v>
+        <v>5416495</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="1" s="15">
       <c r="A6" t="inlineStr">
         <is>
           <t>岩浆法师</t>
@@ -1351,37 +1355,37 @@
         <v>1011</v>
       </c>
       <c r="AB6" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC6" t="n">
         <v>505</v>
       </c>
       <c r="AD6" t="n">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AE6" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="AF6" t="n">
-        <v>42376</v>
+        <v>48896</v>
       </c>
       <c r="AG6" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH6" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI6" t="n">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="AK6" t="n">
-        <v>10599545</v>
+        <v>4898236</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="1" s="15">
       <c r="A7" t="inlineStr">
         <is>
           <t>岩浆法师</t>
@@ -1470,37 +1474,37 @@
         <v>1027</v>
       </c>
       <c r="AB7" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC7" t="n">
         <v>495</v>
       </c>
       <c r="AD7" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AE7" t="n">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="AF7" t="n">
-        <v>39441</v>
+        <v>53650</v>
       </c>
       <c r="AG7" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH7" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI7" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="AK7" t="n">
-        <v>10135500</v>
+        <v>5442030</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="1" s="15">
       <c r="A8" t="inlineStr">
         <is>
           <t>岩浆法师</t>
@@ -1589,37 +1593,37 @@
         <v>982</v>
       </c>
       <c r="AB8" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC8" t="n">
         <v>490</v>
       </c>
       <c r="AD8" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AE8" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AF8" t="n">
-        <v>39665</v>
+        <v>46578</v>
       </c>
       <c r="AG8" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH8" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI8" t="n">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AK8" t="n">
-        <v>9988110</v>
+        <v>5196144</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="1" s="15">
       <c r="A9" t="inlineStr">
         <is>
           <t>霜寒法师</t>
@@ -1711,34 +1715,34 @@
         <v>308</v>
       </c>
       <c r="AC9" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AD9" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AE9" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AF9" t="n">
-        <v>40850</v>
+        <v>48136</v>
       </c>
       <c r="AG9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH9" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AI9" t="n">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AK9" t="n">
-        <v>10879749</v>
+        <v>4858567</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="1" s="15">
       <c r="A10" t="inlineStr">
         <is>
           <t>霜寒法师</t>
@@ -1827,37 +1831,37 @@
         <v>1011</v>
       </c>
       <c r="AB10" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC10" t="n">
         <v>505</v>
       </c>
       <c r="AD10" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AE10" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AF10" t="n">
-        <v>42376</v>
+        <v>48896</v>
       </c>
       <c r="AG10" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH10" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI10" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AK10" t="n">
-        <v>10599545</v>
+        <v>4898236</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="1" s="15">
       <c r="A11" t="inlineStr">
         <is>
           <t>霜寒法师</t>
@@ -1946,37 +1950,37 @@
         <v>1027</v>
       </c>
       <c r="AB11" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC11" t="n">
         <v>495</v>
       </c>
       <c r="AD11" t="n">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AE11" t="n">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="AF11" t="n">
-        <v>39441</v>
+        <v>53650</v>
       </c>
       <c r="AG11" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH11" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI11" t="n">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="AK11" t="n">
-        <v>10135500</v>
+        <v>5442030</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="1" s="15">
       <c r="A12" t="inlineStr">
         <is>
           <t>霜寒法师</t>
@@ -2065,37 +2069,37 @@
         <v>982</v>
       </c>
       <c r="AB12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC12" t="n">
         <v>490</v>
       </c>
       <c r="AD12" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AE12" t="n">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AF12" t="n">
-        <v>39665</v>
+        <v>46578</v>
       </c>
       <c r="AG12" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH12" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI12" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AK12" t="n">
-        <v>9988110</v>
+        <v>5196144</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="1" s="15">
       <c r="A13" t="inlineStr">
         <is>
           <t>血法师</t>
@@ -2184,37 +2188,37 @@
         <v>1011</v>
       </c>
       <c r="AB13" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC13" t="n">
         <v>482</v>
       </c>
       <c r="AD13" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AE13" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AF13" t="n">
-        <v>42376</v>
+        <v>48896</v>
       </c>
       <c r="AG13" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH13" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI13" t="n">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="AK13" t="n">
-        <v>10599545</v>
+        <v>4898236</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="1" s="15">
       <c r="A14" t="inlineStr">
         <is>
           <t>血法师</t>
@@ -2309,31 +2313,31 @@
         <v>472</v>
       </c>
       <c r="AD14" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AE14" t="n">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AF14" t="n">
-        <v>39441</v>
+        <v>45949</v>
       </c>
       <c r="AG14" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH14" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AI14" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AK14" t="n">
-        <v>10135500</v>
+        <v>5442030</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="1" s="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>血法师</t>
@@ -2422,37 +2426,37 @@
         <v>982</v>
       </c>
       <c r="AB15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC15" t="n">
         <v>467</v>
       </c>
       <c r="AD15" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AE15" t="n">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AF15" t="n">
-        <v>39665</v>
+        <v>46578</v>
       </c>
       <c r="AG15" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH15" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AI15" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AK15" t="n">
-        <v>9988110</v>
+        <v>5196144</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="1" s="15">
       <c r="A16" t="inlineStr">
         <is>
           <t>幻境先知</t>
@@ -2544,34 +2548,34 @@
         <v>322</v>
       </c>
       <c r="AC16" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD16" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AE16" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AF16" t="n">
-        <v>40850</v>
+        <v>48136</v>
       </c>
       <c r="AG16" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH16" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI16" t="n">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AK16" t="n">
-        <v>10879749</v>
+        <v>4858567</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="1" s="15">
       <c r="A17" t="inlineStr">
         <is>
           <t>虚空法师</t>
@@ -2663,34 +2667,34 @@
         <v>322</v>
       </c>
       <c r="AC17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD17" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AE17" t="n">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AF17" t="n">
-        <v>40850</v>
+        <v>48136</v>
       </c>
       <c r="AG17" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH17" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI17" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AK17" t="n">
-        <v>10879749</v>
+        <v>4858567</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="1" s="15">
       <c r="A18" t="inlineStr">
         <is>
           <t>大巫医</t>
@@ -2782,34 +2786,34 @@
         <v>313</v>
       </c>
       <c r="AC18" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AD18" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AE18" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AF18" t="n">
-        <v>40850</v>
+        <v>48136</v>
       </c>
       <c r="AG18" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH18" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AI18" t="n">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AK18" t="n">
-        <v>10879749</v>
+        <v>4858567</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="1" s="15">
       <c r="A19" t="inlineStr">
         <is>
           <t>灵魂贤者</t>
@@ -2901,34 +2905,34 @@
         <v>313</v>
       </c>
       <c r="AC19" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AD19" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AE19" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF19" t="n">
-        <v>40850</v>
+        <v>48136</v>
       </c>
       <c r="AG19" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH19" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AI19" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="AK19" t="n">
-        <v>10879749</v>
+        <v>4858567</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="1" s="15">
       <c r="A20" t="inlineStr">
         <is>
           <t>灵魂贤者</t>
@@ -3017,37 +3021,37 @@
         <v>1011</v>
       </c>
       <c r="AB20" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC20" t="n">
         <v>486</v>
       </c>
       <c r="AD20" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AE20" t="n">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="AF20" t="n">
-        <v>42376</v>
+        <v>48896</v>
       </c>
       <c r="AG20" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH20" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI20" t="n">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="AK20" t="n">
-        <v>10599545</v>
+        <v>4898236</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="1" s="15">
       <c r="A21" t="inlineStr">
         <is>
           <t>灵魂贤者</t>
@@ -3136,37 +3140,37 @@
         <v>1027</v>
       </c>
       <c r="AB21" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC21" t="n">
         <v>476</v>
       </c>
       <c r="AD21" t="n">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AE21" t="n">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="AF21" t="n">
-        <v>39441</v>
+        <v>53650</v>
       </c>
       <c r="AG21" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH21" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AI21" t="n">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="AK21" t="n">
-        <v>10135500</v>
+        <v>5442030</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="1" s="15">
       <c r="A22" t="inlineStr">
         <is>
           <t>灵魂贤者</t>
@@ -3255,37 +3259,37 @@
         <v>982</v>
       </c>
       <c r="AB22" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC22" t="n">
         <v>471</v>
       </c>
       <c r="AD22" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AE22" t="n">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AF22" t="n">
-        <v>39665</v>
+        <v>46578</v>
       </c>
       <c r="AG22" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH22" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AI22" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="AK22" t="n">
-        <v>9988110</v>
+        <v>5196144</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="1" s="15">
       <c r="A23" t="inlineStr">
         <is>
           <t>剑宗</t>
@@ -3380,31 +3384,31 @@
         <v>360</v>
       </c>
       <c r="AD23" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AE23" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF23" t="n">
-        <v>41311</v>
+        <v>47667</v>
       </c>
       <c r="AG23" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH23" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AI23" t="n">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AJ23" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AK23" t="n">
-        <v>9941756</v>
+        <v>4649571</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="1" s="15">
       <c r="A24" t="inlineStr">
         <is>
           <t>剑宗</t>
@@ -3499,31 +3503,31 @@
         <v>371</v>
       </c>
       <c r="AD24" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AE24" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF24" t="n">
-        <v>42473</v>
+        <v>48571</v>
       </c>
       <c r="AG24" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH24" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AI24" t="n">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AJ24" t="n">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AK24" t="n">
-        <v>9890777</v>
+        <v>4849058</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="1" s="15">
       <c r="A25" t="inlineStr">
         <is>
           <t>剑魔</t>
@@ -3612,37 +3616,37 @@
         <v>1017</v>
       </c>
       <c r="AB25" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC25" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD25" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AE25" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AF25" t="n">
-        <v>37503</v>
+        <v>50760</v>
       </c>
       <c r="AG25" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH25" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AI25" t="n">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AJ25" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="AK25" t="n">
-        <v>10699146</v>
+        <v>5097980</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="1" s="15">
       <c r="A26" t="inlineStr">
         <is>
           <t>剑魔</t>
@@ -3731,37 +3735,37 @@
         <v>963</v>
       </c>
       <c r="AB26" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC26" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AD26" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AE26" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AF26" t="n">
-        <v>37890</v>
+        <v>50691</v>
       </c>
       <c r="AG26" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH26" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI26" t="n">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AJ26" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AK26" t="n">
-        <v>10262575</v>
+        <v>4697085</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="1" s="15">
       <c r="A27" t="inlineStr">
         <is>
           <t>剑魔</t>
@@ -3853,34 +3857,34 @@
         <v>282</v>
       </c>
       <c r="AC27" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD27" t="n">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AE27" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AF27" t="n">
-        <v>40553</v>
+        <v>52445</v>
       </c>
       <c r="AG27" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH27" t="n">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AI27" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="AJ27" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AK27" t="n">
-        <v>10347402</v>
+        <v>5190101</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="1" s="15">
       <c r="A28" t="inlineStr">
         <is>
           <t>剑豪</t>
@@ -3969,37 +3973,37 @@
         <v>1017</v>
       </c>
       <c r="AB28" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC28" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AD28" t="n">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AE28" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="AF28" t="n">
-        <v>37503</v>
+        <v>50760</v>
       </c>
       <c r="AG28" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH28" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AI28" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AK28" t="n">
-        <v>10699146</v>
+        <v>5097980</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="1" s="15">
       <c r="A29" t="inlineStr">
         <is>
           <t>剑豪</t>
@@ -4088,37 +4092,37 @@
         <v>963</v>
       </c>
       <c r="AB29" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC29" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD29" t="n">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AE29" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="AF29" t="n">
-        <v>37890</v>
+        <v>50691</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH29" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AI29" t="n">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="AK29" t="n">
-        <v>10262575</v>
+        <v>4697085</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="1" s="15">
       <c r="A30" t="inlineStr">
         <is>
           <t>剑豪</t>
@@ -4210,34 +4214,34 @@
         <v>295</v>
       </c>
       <c r="AC30" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AD30" t="n">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AE30" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="AF30" t="n">
-        <v>40553</v>
+        <v>52445</v>
       </c>
       <c r="AG30" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH30" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AI30" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AK30" t="n">
-        <v>10347402</v>
+        <v>5190101</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="1" s="15">
       <c r="A31" t="inlineStr">
         <is>
           <t>圣龙将军</t>
@@ -4332,31 +4336,31 @@
         <v>344</v>
       </c>
       <c r="AD31" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AE31" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF31" t="n">
-        <v>40543</v>
+        <v>46810</v>
       </c>
       <c r="AG31" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH31" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI31" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AJ31" t="n">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AK31" t="n">
-        <v>9899791</v>
+        <v>4625641</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="1" s="15">
       <c r="A32" t="inlineStr">
         <is>
           <t>圣龙将军</t>
@@ -4445,37 +4449,37 @@
         <v>1032</v>
       </c>
       <c r="AB32" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC32" t="n">
         <v>355</v>
       </c>
       <c r="AD32" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AE32" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AF32" t="n">
-        <v>41688</v>
+        <v>47708</v>
       </c>
       <c r="AG32" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH32" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AI32" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AJ32" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AK32" t="n">
-        <v>9848941</v>
+        <v>4824437</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="1" s="15">
       <c r="A33" t="inlineStr">
         <is>
           <t>黑骑士</t>
@@ -4567,34 +4571,34 @@
         <v>297</v>
       </c>
       <c r="AC33" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD33" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AE33" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AF33" t="n">
-        <v>39518</v>
+        <v>45938</v>
       </c>
       <c r="AG33" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH33" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI33" t="n">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="AK33" t="n">
-        <v>9153413</v>
+        <v>4988817</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="1" s="15">
       <c r="A34" t="inlineStr">
         <is>
           <t>黑骑士</t>
@@ -4686,34 +4690,34 @@
         <v>299</v>
       </c>
       <c r="AC34" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AD34" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AE34" t="n">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="AF34" t="n">
-        <v>38816</v>
+        <v>50692</v>
       </c>
       <c r="AG34" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH34" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI34" t="n">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="AK34" t="n">
-        <v>10593092</v>
+        <v>5164529</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="1" s="15">
       <c r="A35" t="inlineStr">
         <is>
           <t>狂战神</t>
@@ -4802,37 +4806,37 @@
         <v>1017</v>
       </c>
       <c r="AB35" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC35" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AD35" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AE35" t="n">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="AF35" t="n">
-        <v>36723</v>
+        <v>51152</v>
       </c>
       <c r="AG35" t="n">
         <v>322</v>
       </c>
       <c r="AH35" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AI35" t="n">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AK35" t="n">
-        <v>9695725</v>
+        <v>4981065</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="1" s="15">
       <c r="A36" t="inlineStr">
         <is>
           <t>狂战神</t>
@@ -4927,31 +4931,31 @@
         <v>472</v>
       </c>
       <c r="AD36" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AE36" t="n">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AF36" t="n">
-        <v>41778</v>
+        <v>48613</v>
       </c>
       <c r="AG36" t="n">
         <v>320</v>
       </c>
       <c r="AH36" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AI36" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="AK36" t="n">
-        <v>9919369</v>
+        <v>5393297</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="1" s="15">
       <c r="A37" t="inlineStr">
         <is>
           <t>狂战神</t>
@@ -5043,34 +5047,34 @@
         <v>316</v>
       </c>
       <c r="AC37" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AD37" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AE37" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="AF37" t="n">
-        <v>39187</v>
+        <v>53171</v>
       </c>
       <c r="AG37" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH37" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AI37" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AK37" t="n">
-        <v>9360823</v>
+        <v>5082498</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="1" s="15">
       <c r="A38" t="inlineStr">
         <is>
           <t>蛮荒之王</t>
@@ -5159,37 +5163,37 @@
         <v>978</v>
       </c>
       <c r="AB38" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC38" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AD38" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AE38" t="n">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="AF38" t="n">
-        <v>37433</v>
+        <v>52047</v>
       </c>
       <c r="AG38" t="n">
         <v>322</v>
       </c>
       <c r="AH38" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AI38" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="AK38" t="n">
-        <v>9735352</v>
+        <v>5005459</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="1" s="15">
       <c r="A39" t="inlineStr">
         <is>
           <t>蛮荒之王</t>
@@ -5284,31 +5288,31 @@
         <v>473</v>
       </c>
       <c r="AD39" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AE39" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="AF39" t="n">
-        <v>42557</v>
+        <v>49483</v>
       </c>
       <c r="AG39" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH39" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AI39" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AK39" t="n">
-        <v>9959371</v>
+        <v>5419199</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="1" s="15">
       <c r="A40" t="inlineStr">
         <is>
           <t>蛮荒之王</t>
@@ -5403,31 +5407,31 @@
         <v>476</v>
       </c>
       <c r="AD40" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AE40" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AF40" t="n">
-        <v>39930</v>
+        <v>46441</v>
       </c>
       <c r="AG40" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH40" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AI40" t="n">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="AK40" t="n">
-        <v>9399474</v>
+        <v>5106984</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="1" s="15">
       <c r="A41" t="inlineStr">
         <is>
           <t>毁灭者</t>
@@ -5516,37 +5520,37 @@
         <v>1017</v>
       </c>
       <c r="AB41" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC41" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AD41" t="n">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AE41" t="n">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="AF41" t="n">
-        <v>36723</v>
+        <v>51152</v>
       </c>
       <c r="AG41" t="n">
         <v>316</v>
       </c>
       <c r="AH41" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AI41" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AK41" t="n">
-        <v>9695725</v>
+        <v>4981065</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="1" s="15">
       <c r="A42" t="inlineStr">
         <is>
           <t>毁灭者</t>
@@ -5641,31 +5645,31 @@
         <v>461</v>
       </c>
       <c r="AD42" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AE42" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AF42" t="n">
-        <v>41778</v>
+        <v>48613</v>
       </c>
       <c r="AG42" t="n">
         <v>314</v>
       </c>
       <c r="AH42" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI42" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AK42" t="n">
-        <v>9919369</v>
+        <v>5393297</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="1" s="15">
       <c r="A43" t="inlineStr">
         <is>
           <t>毁灭者</t>
@@ -5757,34 +5761,34 @@
         <v>310</v>
       </c>
       <c r="AC43" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AD43" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AE43" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="AF43" t="n">
-        <v>39187</v>
+        <v>53171</v>
       </c>
       <c r="AG43" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH43" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AI43" t="n">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AK43" t="n">
-        <v>9360823</v>
+        <v>5082498</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="1" s="15">
       <c r="A44" t="inlineStr">
         <is>
           <t>火刑官</t>
@@ -5873,37 +5877,37 @@
         <v>978</v>
       </c>
       <c r="AB44" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC44" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AD44" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AE44" t="n">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AF44" t="n">
-        <v>37433</v>
+        <v>52047</v>
       </c>
       <c r="AG44" t="n">
         <v>316</v>
       </c>
       <c r="AH44" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AI44" t="n">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AK44" t="n">
-        <v>9735352</v>
+        <v>5005459</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="1" s="15">
       <c r="A45" t="inlineStr">
         <is>
           <t>火刑官</t>
@@ -5998,31 +6002,31 @@
         <v>462</v>
       </c>
       <c r="AD45" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AE45" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AF45" t="n">
-        <v>42557</v>
+        <v>49483</v>
       </c>
       <c r="AG45" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH45" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AI45" t="n">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AK45" t="n">
-        <v>9959371</v>
+        <v>5419199</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="1" s="15">
       <c r="A46" t="inlineStr">
         <is>
           <t>火刑官</t>
@@ -6117,31 +6121,31 @@
         <v>465</v>
       </c>
       <c r="AD46" t="n">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AE46" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AF46" t="n">
-        <v>39930</v>
+        <v>46441</v>
       </c>
       <c r="AG46" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH46" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AI46" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AK46" t="n">
-        <v>9399474</v>
+        <v>5106984</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="1" s="15">
       <c r="A47" t="inlineStr">
         <is>
           <t>教宗</t>
@@ -6236,31 +6240,31 @@
         <v>538</v>
       </c>
       <c r="AD47" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AE47" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AF47" t="n">
-        <v>37626</v>
+        <v>45224</v>
       </c>
       <c r="AG47" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH47" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AI47" t="n">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AK47" t="n">
-        <v>10038073</v>
+        <v>4761383</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="1" s="15">
       <c r="A48" t="inlineStr">
         <is>
           <t>教宗</t>
@@ -6349,37 +6353,37 @@
         <v>1007</v>
       </c>
       <c r="AB48" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC48" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AD48" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AE48" t="n">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AF48" t="n">
-        <v>37484</v>
+        <v>50541</v>
       </c>
       <c r="AG48" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH48" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI48" t="n">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AJ48" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AK48" t="n">
-        <v>9198872</v>
+        <v>5097419</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="1" s="15">
       <c r="A49" t="inlineStr">
         <is>
           <t>教宗</t>
@@ -6468,37 +6472,37 @@
         <v>1009</v>
       </c>
       <c r="AB49" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC49" t="n">
         <v>312</v>
       </c>
       <c r="AD49" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AE49" t="n">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AF49" t="n">
-        <v>38564</v>
+        <v>50711</v>
       </c>
       <c r="AG49" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH49" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AI49" t="n">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AJ49" t="n">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="AK49" t="n">
-        <v>9676985</v>
+        <v>4710935</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="1" s="15">
       <c r="A50" t="inlineStr">
         <is>
           <t>圣光贤者</t>
@@ -6587,37 +6591,37 @@
         <v>1003</v>
       </c>
       <c r="AB50" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC50" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AD50" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AE50" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="AF50" t="n">
-        <v>38353</v>
+        <v>46044</v>
       </c>
       <c r="AG50" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH50" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AI50" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AK50" t="n">
-        <v>10076914</v>
+        <v>4784596</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="1" s="15">
       <c r="A51" t="inlineStr">
         <is>
           <t>圣光贤者</t>
@@ -6706,37 +6710,37 @@
         <v>975</v>
       </c>
       <c r="AB51" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC51" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD51" t="n">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AE51" t="n">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AF51" t="n">
-        <v>38218</v>
+        <v>51448</v>
       </c>
       <c r="AG51" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH51" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI51" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AJ51" t="n">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AK51" t="n">
-        <v>9239616</v>
+        <v>5124010</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="1" s="15">
       <c r="A52" t="inlineStr">
         <is>
           <t>圣光贤者</t>
@@ -6825,37 +6829,37 @@
         <v>983</v>
       </c>
       <c r="AB52" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC52" t="n">
         <v>313</v>
       </c>
       <c r="AD52" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AE52" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AF52" t="n">
-        <v>39312</v>
+        <v>51624</v>
       </c>
       <c r="AG52" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH52" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI52" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AJ52" t="n">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="AK52" t="n">
-        <v>9719242</v>
+        <v>4736039</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="1" s="15">
       <c r="A53" t="inlineStr">
         <is>
           <t>圣殿骑士</t>
@@ -6944,37 +6948,37 @@
         <v>1003</v>
       </c>
       <c r="AB53" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC53" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AD53" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AE53" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="AF53" t="n">
-        <v>38353</v>
+        <v>46044</v>
       </c>
       <c r="AG53" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH53" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI53" t="n">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="AK53" t="n">
-        <v>10076914</v>
+        <v>4784596</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="1" s="15">
       <c r="A54" t="inlineStr">
         <is>
           <t>神官骑士</t>
@@ -7069,37 +7073,37 @@
         <v>975</v>
       </c>
       <c r="AB54" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC54" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AD54" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AE54" t="n">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AF54" t="n">
-        <v>38218</v>
+        <v>51448</v>
       </c>
       <c r="AG54" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH54" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AI54" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AJ54" t="n">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AK54" t="n">
-        <v>9239616</v>
+        <v>5124010</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="1" s="15">
       <c r="A55" t="inlineStr">
         <is>
           <t>神官骑士</t>
@@ -7194,37 +7198,37 @@
         <v>983</v>
       </c>
       <c r="AB55" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC55" t="n">
         <v>311</v>
       </c>
       <c r="AD55" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AE55" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AF55" t="n">
-        <v>39312</v>
+        <v>51624</v>
       </c>
       <c r="AG55" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH55" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI55" t="n">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AJ55" t="n">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="AK55" t="n">
-        <v>9719242</v>
+        <v>4736039</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="1" s="15">
       <c r="A56" t="inlineStr">
         <is>
           <t>烈枪侠</t>
@@ -7313,37 +7317,37 @@
         <v>1001</v>
       </c>
       <c r="AB56" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC56" t="n">
         <v>478</v>
       </c>
       <c r="AD56" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AE56" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="AF56" t="n">
-        <v>41296</v>
+        <v>47820</v>
       </c>
       <c r="AG56" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH56" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AI56" t="n">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AK56" t="n">
-        <v>10041474</v>
+        <v>4554566</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="1" s="15">
       <c r="A57" t="inlineStr">
         <is>
           <t>烈枪侠</t>
@@ -7432,37 +7436,37 @@
         <v>1036</v>
       </c>
       <c r="AB57" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC57" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AD57" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AE57" t="n">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="AF57" t="n">
-        <v>38760</v>
+        <v>52554</v>
       </c>
       <c r="AG57" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH57" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AI57" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="AK57" t="n">
-        <v>9437895</v>
+        <v>4495361</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="1" s="15">
       <c r="A58" t="inlineStr">
         <is>
           <t>烈枪侠</t>
@@ -7557,31 +7561,31 @@
         <v>467</v>
       </c>
       <c r="AD58" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AE58" t="n">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="AF58" t="n">
-        <v>39331</v>
+        <v>49895</v>
       </c>
       <c r="AG58" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH58" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI58" t="n">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AK58" t="n">
-        <v>9635763</v>
+        <v>5303819</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="1" s="15">
       <c r="A59" t="inlineStr">
         <is>
           <t>烈枪侠</t>
@@ -7670,37 +7674,37 @@
         <v>969</v>
       </c>
       <c r="AB59" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC59" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AD59" t="n">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AE59" t="n">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="AF59" t="n">
-        <v>39311</v>
+        <v>53808</v>
       </c>
       <c r="AG59" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH59" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AI59" t="n">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="AK59" t="n">
-        <v>9222054</v>
+        <v>4912102</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="1" s="15">
       <c r="A60" t="inlineStr">
         <is>
           <t>圣枪侠</t>
@@ -7795,31 +7799,31 @@
         <v>477</v>
       </c>
       <c r="AD60" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AE60" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AF60" t="n">
-        <v>40533</v>
+        <v>46976</v>
       </c>
       <c r="AG60" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH60" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI60" t="n">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AK60" t="n">
-        <v>10000818</v>
+        <v>4532001</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="1" s="15">
       <c r="A61" t="inlineStr">
         <is>
           <t>圣枪侠</t>
@@ -7908,37 +7912,37 @@
         <v>985</v>
       </c>
       <c r="AB61" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC61" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AD61" t="n">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AE61" t="n">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="AF61" t="n">
-        <v>38029</v>
+        <v>51650</v>
       </c>
       <c r="AG61" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH61" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AI61" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="AK61" t="n">
-        <v>9399049</v>
+        <v>5476678</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="1" s="15">
       <c r="A62" t="inlineStr">
         <is>
           <t>圣枪侠</t>
@@ -8033,31 +8037,31 @@
         <v>466</v>
       </c>
       <c r="AD62" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AE62" t="n">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="AF62" t="n">
-        <v>38602</v>
+        <v>49018</v>
       </c>
       <c r="AG62" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH62" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AI62" t="n">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="AK62" t="n">
-        <v>9597068</v>
+        <v>5278414</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="1" s="15">
       <c r="A63" t="inlineStr">
         <is>
           <t>传奇猎人</t>
@@ -8146,37 +8150,37 @@
         <v>1023</v>
       </c>
       <c r="AB63" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC63" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AD63" t="n">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AE63" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AF63" t="n">
-        <v>39078</v>
+        <v>53623</v>
       </c>
       <c r="AG63" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH63" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI63" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AJ63" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AK63" t="n">
-        <v>9632908</v>
+        <v>5100736</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="1" s="15">
       <c r="A64" t="inlineStr">
         <is>
           <t>传奇猎人</t>
@@ -8265,37 +8269,37 @@
         <v>1001</v>
       </c>
       <c r="AB64" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC64" t="n">
         <v>479</v>
       </c>
       <c r="AD64" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AE64" t="n">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AF64" t="n">
-        <v>41296</v>
+        <v>47820</v>
       </c>
       <c r="AG64" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH64" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AI64" t="n">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AK64" t="n">
-        <v>10041474</v>
+        <v>4554566</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="1" s="15">
       <c r="A65" t="inlineStr">
         <is>
           <t>传奇猎人</t>
@@ -8384,37 +8388,37 @@
         <v>1036</v>
       </c>
       <c r="AB65" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC65" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AD65" t="n">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AE65" t="n">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="AF65" t="n">
-        <v>38760</v>
+        <v>52554</v>
       </c>
       <c r="AG65" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH65" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI65" t="n">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="AK65" t="n">
-        <v>9437895</v>
+        <v>4495361</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="1" s="15">
       <c r="A66" t="inlineStr">
         <is>
           <t>传奇猎人</t>
@@ -8509,31 +8513,31 @@
         <v>468</v>
       </c>
       <c r="AD66" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AE66" t="n">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="AF66" t="n">
-        <v>39331</v>
+        <v>49895</v>
       </c>
       <c r="AG66" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH66" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI66" t="n">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AK66" t="n">
-        <v>9635763</v>
+        <v>5303819</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="1" s="15">
       <c r="A67" t="inlineStr">
         <is>
           <t>巨龙猎人</t>
@@ -8622,37 +8626,37 @@
         <v>1023</v>
       </c>
       <c r="AB67" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC67" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AD67" t="n">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AE67" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="AF67" t="n">
-        <v>39078</v>
+        <v>53623</v>
       </c>
       <c r="AG67" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH67" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI67" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AK67" t="n">
-        <v>9632908</v>
+        <v>5100736</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="1" s="15">
       <c r="A68" t="inlineStr">
         <is>
           <t>巨龙猎人</t>
@@ -8741,37 +8745,37 @@
         <v>1001</v>
       </c>
       <c r="AB68" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC68" t="n">
         <v>479</v>
       </c>
       <c r="AD68" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE68" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AF68" t="n">
-        <v>41296</v>
+        <v>47820</v>
       </c>
       <c r="AG68" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH68" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AI68" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AK68" t="n">
-        <v>10041474</v>
+        <v>4554566</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="1" s="15">
       <c r="A69" t="inlineStr">
         <is>
           <t>巨龙猎人</t>
@@ -8860,37 +8864,37 @@
         <v>1036</v>
       </c>
       <c r="AB69" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC69" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AD69" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AE69" t="n">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="AF69" t="n">
-        <v>38760</v>
+        <v>52554</v>
       </c>
       <c r="AG69" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH69" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI69" t="n">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AK69" t="n">
-        <v>9437895</v>
+        <v>4495361</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="1" s="15">
       <c r="A70" t="inlineStr">
         <is>
           <t>巨龙猎人</t>
@@ -8985,31 +8989,31 @@
         <v>468</v>
       </c>
       <c r="AD70" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AE70" t="n">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="AF70" t="n">
-        <v>39331</v>
+        <v>49895</v>
       </c>
       <c r="AG70" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH70" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI70" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AK70" t="n">
-        <v>9635763</v>
+        <v>5303819</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="1" s="15">
       <c r="A71" t="inlineStr">
         <is>
           <t>夜魇</t>
@@ -9104,31 +9108,31 @@
         <v>471</v>
       </c>
       <c r="AD71" t="n">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="AE71" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="AF71" t="n">
-        <v>37162</v>
+        <v>50498</v>
       </c>
       <c r="AG71" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH71" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AI71" t="n">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="AK71" t="n">
-        <v>9408604</v>
+        <v>5060494</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="1" s="15">
       <c r="A72" t="inlineStr">
         <is>
           <t>夜魇</t>
@@ -9217,34 +9221,34 @@
         <v>1004</v>
       </c>
       <c r="AB72" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC72" t="n">
         <v>476</v>
       </c>
       <c r="AD72" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AE72" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AF72" t="n">
-        <v>41688</v>
+        <v>47876</v>
       </c>
       <c r="AG72" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH72" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI72" t="n">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AK72" t="n">
-        <v>9489715</v>
+        <v>4831207</v>
       </c>
     </row>
     <row r="73">
@@ -9336,34 +9340,34 @@
         <v>963</v>
       </c>
       <c r="AB73" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC73" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AD73" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AE73" t="n">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="AF73" t="n">
-        <v>37374</v>
+        <v>52608</v>
       </c>
       <c r="AG73" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH73" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI73" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="AK73" t="n">
-        <v>9590043</v>
+        <v>4819145</v>
       </c>
     </row>
     <row r="74">
@@ -9461,28 +9465,28 @@
         <v>469</v>
       </c>
       <c r="AD74" t="n">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AE74" t="n">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="AF74" t="n">
-        <v>37162</v>
+        <v>50498</v>
       </c>
       <c r="AG74" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH74" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AI74" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AK74" t="n">
-        <v>9408604</v>
+        <v>5060494</v>
       </c>
     </row>
     <row r="75">
@@ -9574,34 +9578,34 @@
         <v>1004</v>
       </c>
       <c r="AB75" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC75" t="n">
         <v>474</v>
       </c>
       <c r="AD75" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AE75" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AF75" t="n">
-        <v>41688</v>
+        <v>47876</v>
       </c>
       <c r="AG75" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH75" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AI75" t="n">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AK75" t="n">
-        <v>9489715</v>
+        <v>4831207</v>
       </c>
     </row>
     <row r="76">
@@ -9693,34 +9697,34 @@
         <v>1013</v>
       </c>
       <c r="AB76" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC76" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD76" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AE76" t="n">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="AF76" t="n">
-        <v>38089</v>
+        <v>53518</v>
       </c>
       <c r="AG76" t="n">
         <v>368</v>
       </c>
       <c r="AH76" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AI76" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="AK76" t="n">
-        <v>9629528</v>
+        <v>4842310</v>
       </c>
     </row>
   </sheetData>
@@ -9729,9 +9733,9 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="W1:AA1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
